--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1133600.997780603</v>
+        <v>1057559.051221998</v>
       </c>
     </row>
     <row r="7">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="G11" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.95466973560558</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>54.15825830539841</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63051202600825</v>
+        <v>1.19624695921317</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="U13" t="n">
-        <v>57.48241601499575</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>54.15825830539841</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="U14" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>54.15825830539846</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="I15" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="U15" t="n">
-        <v>50.63051202600825</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="V15" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="J16" t="n">
-        <v>44.93554597584871</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="T16" t="n">
-        <v>5.694966050159525</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>50.63051202600825</v>
+        <v>54.15825830539842</v>
       </c>
       <c r="X17" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.196246959213142</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>50.63051202600825</v>
       </c>
     </row>
     <row r="19">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21.82093040105045</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>28.80958162495779</v>
       </c>
       <c r="R19" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="T19" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>21.82093040105047</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.63051202600823</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.95466973560558</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>54.15825830539846</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.196246959213149</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="U21" t="n">
-        <v>57.48241601499577</v>
+        <v>50.63051202600825</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R22" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="S22" t="n">
-        <v>50.63051202600825</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.48241601499577</v>
+        <v>21.82093040105045</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>101.2610240520165</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="V23" t="n">
-        <v>114.9648320299915</v>
+        <v>101.2610240520164</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>101.2610240520165</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>101.2610240520165</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="T24" t="n">
         <v>114.9648320299915</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="C25" t="n">
-        <v>72.45144242705867</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>114.9648320299915</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>101.2610240520164</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.2610240520165</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S26" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>114.9648320299915</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>47.30635431641092</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
     </row>
     <row r="27">
@@ -2636,20 +2636,20 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>101.2610240520165</v>
+      </c>
+      <c r="G27" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>51.82675898522137</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>56.32547807616775</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.93554597584871</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,31 +2757,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>114.9648320299915</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>114.9648320299915</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>72.45144242705867</v>
       </c>
     </row>
     <row r="29">
@@ -2791,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>101.2610240520164</v>
+      </c>
+      <c r="F29" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>47.30635431641088</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>53.95466973560558</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>114.9648320299915</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,20 +2870,20 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="C30" t="n">
+      <c r="F30" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>51.82675898522141</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>51.8267589852214</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.2610240520165</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="T31" t="n">
-        <v>114.9648320299915</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
       <c r="V31" t="n">
-        <v>72.45144242705867</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>114.9648320299915</v>
@@ -3031,20 +3031,20 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>101.2610240520165</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="W32" t="n">
-        <v>114.9648320299915</v>
+        <v>101.2610240520164</v>
       </c>
       <c r="X32" t="n">
         <v>114.9648320299915</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>51.82675898522137</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.3452705202604</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>61.26862936710405</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>50.6119561946435</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>56.32547807616775</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>44.93554597584871</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,23 +3231,23 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>114.9648320299915</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>72.45144242705867</v>
-      </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>50.63051202600825</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>54.15825830539843</v>
       </c>
       <c r="T35" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="H36" t="n">
-        <v>1.196246959213156</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>50.63051202600825</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.63051202600823</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="W37" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.95466973560558</v>
+        <v>50.63051202600825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>54.15825830539846</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>57.48241601499577</v>
+        <v>1.196246959213149</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="W39" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.82093040105048</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.48241601499577</v>
+        <v>50.63051202600825</v>
       </c>
       <c r="S40" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="T40" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>54.15825830539842</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="X41" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S42" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="V42" t="n">
-        <v>57.48241601499577</v>
+        <v>1.196246959213149</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.48241601499577</v>
+        <v>50.63051202600825</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="U43" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="F44" t="n">
-        <v>50.63051202600825</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>50.63051202600825</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.48241601499577</v>
+        <v>50.63051202600828</v>
       </c>
     </row>
     <row r="46">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>57.48241601499577</v>
+        <v>50.63051202600828</v>
       </c>
       <c r="G46" t="n">
-        <v>50.63051202600825</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="H46" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.66163976099335</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="C11" t="n">
-        <v>62.66163976099335</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="D11" t="n">
-        <v>62.66163976099335</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="E11" t="n">
-        <v>62.66163976099335</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="F11" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="G11" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="H11" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="I11" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J11" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K11" t="n">
-        <v>4.59859328119966</v>
+        <v>61.50618513604548</v>
       </c>
       <c r="L11" t="n">
-        <v>9.737337612953928</v>
+        <v>118.4137769908913</v>
       </c>
       <c r="M11" t="n">
-        <v>66.64492946779971</v>
+        <v>160.4271820778667</v>
       </c>
       <c r="N11" t="n">
-        <v>123.5525213226455</v>
+        <v>203.0332363879143</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4489489947144</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P11" t="n">
-        <v>207.3565408495601</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q11" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R11" t="n">
-        <v>175.4299976603814</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="S11" t="n">
-        <v>175.4299976603814</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="T11" t="n">
-        <v>175.4299976603814</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="U11" t="n">
-        <v>120.724686240787</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="V11" t="n">
-        <v>120.724686240787</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="W11" t="n">
-        <v>120.724686240787</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="X11" t="n">
-        <v>62.66163976099335</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.66163976099335</v>
+        <v>120.7246862407871</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.74052462060194</v>
+        <v>63.86997002282487</v>
       </c>
       <c r="C12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="D12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="E12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="F12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="G12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="H12" t="n">
-        <v>55.74052462060194</v>
+        <v>5.806923543031147</v>
       </c>
       <c r="I12" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J12" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K12" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="L12" t="n">
         <v>43.04148269605536</v>
       </c>
       <c r="M12" t="n">
-        <v>99.94907455090114</v>
+        <v>99.94907455090117</v>
       </c>
       <c r="N12" t="n">
-        <v>156.8566664057469</v>
+        <v>156.8566664057471</v>
       </c>
       <c r="O12" t="n">
-        <v>208.1196591781401</v>
+        <v>208.1196591781402</v>
       </c>
       <c r="P12" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R12" t="n">
-        <v>229.929664059983</v>
+        <v>179.9960629824123</v>
       </c>
       <c r="S12" t="n">
-        <v>229.929664059983</v>
+        <v>179.9960629824123</v>
       </c>
       <c r="T12" t="n">
-        <v>171.8666175801893</v>
+        <v>179.9960629824123</v>
       </c>
       <c r="U12" t="n">
-        <v>171.8666175801893</v>
+        <v>179.9960629824123</v>
       </c>
       <c r="V12" t="n">
-        <v>113.8035711003956</v>
+        <v>121.9330165026186</v>
       </c>
       <c r="W12" t="n">
-        <v>113.8035711003956</v>
+        <v>63.86997002282487</v>
       </c>
       <c r="X12" t="n">
-        <v>113.8035711003956</v>
+        <v>63.86997002282487</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.74052462060194</v>
+        <v>63.86997002282487</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.8035711003956</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="C13" t="n">
-        <v>113.8035711003956</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="D13" t="n">
-        <v>55.74052462060194</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="E13" t="n">
-        <v>55.74052462060194</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="F13" t="n">
-        <v>55.74052462060194</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="G13" t="n">
-        <v>55.74052462060194</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="H13" t="n">
-        <v>55.74052462060194</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="I13" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J13" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K13" t="n">
-        <v>4.59859328119966</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="L13" t="n">
-        <v>59.20688849544561</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="M13" t="n">
-        <v>116.1144803502914</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="N13" t="n">
-        <v>116.1144803502914</v>
+        <v>118.2385452139601</v>
       </c>
       <c r="O13" t="n">
-        <v>173.0220722051372</v>
+        <v>175.146137068806</v>
       </c>
       <c r="P13" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q13" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R13" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S13" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T13" t="n">
-        <v>229.929664059983</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="U13" t="n">
-        <v>171.8666175801893</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="V13" t="n">
-        <v>171.8666175801893</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="W13" t="n">
-        <v>171.8666175801893</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="X13" t="n">
-        <v>171.8666175801893</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.8035711003956</v>
+        <v>4.598593281199662</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117.3669511805877</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="C14" t="n">
-        <v>117.3669511805877</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="D14" t="n">
-        <v>117.3669511805877</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="E14" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="F14" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="G14" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="H14" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="I14" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J14" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K14" t="n">
-        <v>61.50618513604545</v>
+        <v>61.50618513604548</v>
       </c>
       <c r="L14" t="n">
-        <v>103.5195902230208</v>
+        <v>118.4137769908913</v>
       </c>
       <c r="M14" t="n">
-        <v>160.4271820778665</v>
+        <v>155.8010576341003</v>
       </c>
       <c r="N14" t="n">
-        <v>203.0332363879141</v>
+        <v>198.4071119441479</v>
       </c>
       <c r="O14" t="n">
-        <v>229.929664059983</v>
+        <v>225.3035396162168</v>
       </c>
       <c r="P14" t="n">
-        <v>229.929664059983</v>
+        <v>225.3035396162168</v>
       </c>
       <c r="Q14" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R14" t="n">
-        <v>175.4299976603814</v>
+        <v>175.4299976603815</v>
       </c>
       <c r="S14" t="n">
-        <v>175.4299976603814</v>
+        <v>175.4299976603815</v>
       </c>
       <c r="T14" t="n">
-        <v>175.4299976603814</v>
+        <v>117.3669511805878</v>
       </c>
       <c r="U14" t="n">
-        <v>117.3669511805877</v>
+        <v>117.3669511805878</v>
       </c>
       <c r="V14" t="n">
-        <v>117.3669511805877</v>
+        <v>117.3669511805878</v>
       </c>
       <c r="W14" t="n">
-        <v>117.3669511805877</v>
+        <v>117.3669511805878</v>
       </c>
       <c r="X14" t="n">
-        <v>117.3669511805877</v>
+        <v>59.30390470079407</v>
       </c>
       <c r="Y14" t="n">
-        <v>117.3669511805877</v>
+        <v>4.598593281199662</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="C15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="D15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="E15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="F15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="G15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="H15" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="I15" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J15" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K15" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="L15" t="n">
-        <v>43.04148269605536</v>
+        <v>43.04148269605537</v>
       </c>
       <c r="M15" t="n">
-        <v>99.94907455090119</v>
+        <v>99.9490745509012</v>
       </c>
       <c r="N15" t="n">
         <v>156.856666405747</v>
       </c>
       <c r="O15" t="n">
-        <v>208.1196591781401</v>
+        <v>208.1196591781402</v>
       </c>
       <c r="P15" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R15" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S15" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T15" t="n">
-        <v>171.8666175801893</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="U15" t="n">
-        <v>120.724686240787</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="V15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="W15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="X15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.66163976099335</v>
+        <v>55.74052462060197</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.98803366084483</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="C16" t="n">
-        <v>49.98803366084483</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="D16" t="n">
-        <v>49.98803366084483</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="E16" t="n">
-        <v>49.98803366084483</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="F16" t="n">
-        <v>49.98803366084483</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="G16" t="n">
-        <v>49.98803366084483</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="H16" t="n">
-        <v>49.98803366084483</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="I16" t="n">
-        <v>49.98803366084483</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="J16" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K16" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="L16" t="n">
-        <v>4.59859328119966</v>
+        <v>59.20688849544567</v>
       </c>
       <c r="M16" t="n">
-        <v>59.20688849544561</v>
+        <v>59.20688849544567</v>
       </c>
       <c r="N16" t="n">
-        <v>116.1144803502914</v>
+        <v>116.1144803502915</v>
       </c>
       <c r="O16" t="n">
-        <v>173.0220722051372</v>
+        <v>173.0220722051373</v>
       </c>
       <c r="P16" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q16" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R16" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S16" t="n">
-        <v>229.929664059983</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="T16" t="n">
-        <v>224.1771731002259</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="U16" t="n">
-        <v>224.1771731002259</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="V16" t="n">
-        <v>166.1141266204322</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="W16" t="n">
-        <v>166.1141266204322</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="X16" t="n">
-        <v>108.0510801406385</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.98803366084483</v>
+        <v>113.8035711003957</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>120.724686240787</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C17" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D17" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E17" t="n">
-        <v>62.66163976099335</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F17" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G17" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H17" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I17" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J17" t="n">
-        <v>61.50618513604545</v>
+        <v>61.50618513604547</v>
       </c>
       <c r="K17" t="n">
-        <v>61.50618513604545</v>
+        <v>117.9011571029033</v>
       </c>
       <c r="L17" t="n">
-        <v>118.4137769908913</v>
+        <v>123.0399014346576</v>
       </c>
       <c r="M17" t="n">
-        <v>155.8010576341003</v>
+        <v>160.4271820778666</v>
       </c>
       <c r="N17" t="n">
-        <v>198.4071119441479</v>
+        <v>203.0332363879142</v>
       </c>
       <c r="O17" t="n">
-        <v>225.3035396162167</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P17" t="n">
-        <v>225.3035396162167</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q17" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R17" t="n">
-        <v>229.929664059983</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="S17" t="n">
-        <v>229.929664059983</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="T17" t="n">
-        <v>229.929664059983</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="U17" t="n">
-        <v>229.929664059983</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="V17" t="n">
-        <v>229.929664059983</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="W17" t="n">
-        <v>178.7877327205807</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="X17" t="n">
-        <v>120.724686240787</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="Y17" t="n">
-        <v>120.724686240787</v>
+        <v>4.598593281199661</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.66163976099335</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="C18" t="n">
-        <v>4.59859328119966</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="D18" t="n">
-        <v>4.59859328119966</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="E18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K18" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L18" t="n">
-        <v>43.04148269605535</v>
+        <v>43.04148269605537</v>
       </c>
       <c r="M18" t="n">
-        <v>99.94907455090114</v>
+        <v>99.94907455090117</v>
       </c>
       <c r="N18" t="n">
-        <v>156.8566664057469</v>
+        <v>156.856666405747</v>
       </c>
       <c r="O18" t="n">
-        <v>208.1196591781401</v>
+        <v>208.1196591781402</v>
       </c>
       <c r="P18" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R18" t="n">
-        <v>179.9960629824122</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S18" t="n">
-        <v>179.9960629824122</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T18" t="n">
-        <v>121.9330165026185</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="U18" t="n">
-        <v>63.86997002282481</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="V18" t="n">
-        <v>62.66163976099335</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="W18" t="n">
-        <v>62.66163976099335</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="X18" t="n">
-        <v>62.66163976099335</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.66163976099335</v>
+        <v>178.7877327205808</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="C19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="D19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="E19" t="n">
-        <v>4.59859328119966</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="F19" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G19" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H19" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I19" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J19" t="n">
-        <v>4.59859328119966</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K19" t="n">
-        <v>61.3309533591143</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L19" t="n">
-        <v>61.3309533591143</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="M19" t="n">
-        <v>116.1144803502914</v>
+        <v>61.50618513604547</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0220722051372</v>
+        <v>118.4137769908913</v>
       </c>
       <c r="O19" t="n">
-        <v>229.929664059983</v>
+        <v>175.3213688457371</v>
       </c>
       <c r="P19" t="n">
-        <v>229.929664059983</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.8290765600256</v>
+        <v>200.8290765600257</v>
       </c>
       <c r="R19" t="n">
         <v>142.766030080232</v>
       </c>
       <c r="S19" t="n">
-        <v>142.766030080232</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="T19" t="n">
         <v>84.70298360043827</v>
       </c>
       <c r="U19" t="n">
-        <v>26.63993712064458</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="V19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="W19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="X19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.59859328119966</v>
+        <v>84.70298360043827</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="C20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="D20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="E20" t="n">
-        <v>4.598593281199662</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="F20" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
       <c r="G20" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="H20" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I20" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J20" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K20" t="n">
-        <v>4.598593281199662</v>
+        <v>61.50618513604547</v>
       </c>
       <c r="L20" t="n">
-        <v>61.50618513604547</v>
+        <v>118.4137769908913</v>
       </c>
       <c r="M20" t="n">
-        <v>98.89346577925453</v>
+        <v>155.8010576341003</v>
       </c>
       <c r="N20" t="n">
-        <v>155.8010576341003</v>
+        <v>203.0332363879142</v>
       </c>
       <c r="O20" t="n">
-        <v>182.6974853061692</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P20" t="n">
-        <v>182.6974853061692</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q20" t="n">
         <v>229.9296640599831</v>
       </c>
       <c r="R20" t="n">
-        <v>175.4299976603815</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S20" t="n">
-        <v>175.4299976603815</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T20" t="n">
-        <v>120.7246862407871</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="U20" t="n">
-        <v>62.66163976099337</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="V20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="W20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="X20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199726</v>
       </c>
       <c r="K21" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199726</v>
       </c>
       <c r="L21" t="n">
-        <v>43.04148269605536</v>
+        <v>43.04148269605543</v>
       </c>
       <c r="M21" t="n">
-        <v>99.94907455090117</v>
+        <v>99.94907455090123</v>
       </c>
       <c r="N21" t="n">
         <v>156.856666405747</v>
@@ -5855,28 +5855,28 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R21" t="n">
-        <v>179.9960629824123</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S21" t="n">
-        <v>178.7877327205808</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T21" t="n">
-        <v>178.7877327205808</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="U21" t="n">
         <v>120.7246862407871</v>
       </c>
       <c r="V21" t="n">
-        <v>120.7246862407871</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="W21" t="n">
-        <v>120.7246862407871</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="X21" t="n">
-        <v>120.7246862407871</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="Y21" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K22" t="n">
         <v>61.3309533591143</v>
       </c>
       <c r="L22" t="n">
-        <v>116.1144803502915</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="M22" t="n">
-        <v>173.0220722051373</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="N22" t="n">
         <v>229.9296640599831</v>
@@ -5931,31 +5931,31 @@
         <v>229.9296640599831</v>
       </c>
       <c r="Q22" t="n">
-        <v>229.9296640599831</v>
+        <v>200.8290765600257</v>
       </c>
       <c r="R22" t="n">
-        <v>171.8666175801894</v>
+        <v>142.766030080232</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7246862407871</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="T22" t="n">
-        <v>120.7246862407871</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="U22" t="n">
-        <v>120.7246862407871</v>
+        <v>84.70298360043827</v>
       </c>
       <c r="V22" t="n">
+        <v>84.70298360043827</v>
+      </c>
+      <c r="W22" t="n">
         <v>62.66163976099337</v>
       </c>
-      <c r="W22" t="n">
-        <v>4.598593281199662</v>
-      </c>
       <c r="X22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>111.4810492412038</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="C23" t="n">
-        <v>111.4810492412038</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="D23" t="n">
-        <v>111.4810492412038</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="E23" t="n">
-        <v>9.197186562399322</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="F23" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="G23" t="n">
         <v>9.197186562399322</v>
@@ -5989,22 +5989,22 @@
         <v>9.197186562399322</v>
       </c>
       <c r="J23" t="n">
-        <v>48.99132434385911</v>
+        <v>75.80772268084361</v>
       </c>
       <c r="K23" t="n">
-        <v>162.8065080535507</v>
+        <v>75.80772268084361</v>
       </c>
       <c r="L23" t="n">
-        <v>167.945252385305</v>
+        <v>189.6229063905352</v>
       </c>
       <c r="M23" t="n">
-        <v>205.332533028514</v>
+        <v>303.4380901002268</v>
       </c>
       <c r="N23" t="n">
-        <v>319.1477167382056</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="O23" t="n">
-        <v>346.0441444102745</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="P23" t="n">
         <v>459.8593281199661</v>
@@ -6022,19 +6022,19 @@
         <v>459.8593281199661</v>
       </c>
       <c r="U23" t="n">
-        <v>459.8593281199661</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="V23" t="n">
-        <v>343.7332351603787</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="W23" t="n">
-        <v>343.7332351603787</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="X23" t="n">
-        <v>227.6071422007913</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="Y23" t="n">
-        <v>111.4810492412038</v>
+        <v>241.4493724815741</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="C24" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="D24" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="E24" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="F24" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="G24" t="n">
         <v>9.197186562399322</v>
@@ -6074,19 +6074,19 @@
         <v>9.197186562399322</v>
       </c>
       <c r="L24" t="n">
-        <v>123.0123702720909</v>
+        <v>47.64007597725502</v>
       </c>
       <c r="M24" t="n">
-        <v>187.2302771575426</v>
+        <v>111.8579828627067</v>
       </c>
       <c r="N24" t="n">
-        <v>301.0454608672343</v>
+        <v>192.184191572818</v>
       </c>
       <c r="O24" t="n">
-        <v>352.3084536396274</v>
+        <v>243.4471843452111</v>
       </c>
       <c r="P24" t="n">
-        <v>459.8593281199661</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="Q24" t="n">
         <v>459.8593281199661</v>
@@ -6095,25 +6095,25 @@
         <v>459.8593281199661</v>
       </c>
       <c r="S24" t="n">
-        <v>357.5754654411616</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="T24" t="n">
-        <v>241.4493724815741</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="U24" t="n">
-        <v>241.4493724815741</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="V24" t="n">
-        <v>125.3232795219867</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="W24" t="n">
-        <v>125.3232795219867</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="X24" t="n">
-        <v>125.3232795219867</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.3232795219867</v>
+        <v>227.6071422007912</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.38046174124646</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="C25" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="D25" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="E25" t="n">
         <v>9.197186562399322</v>
@@ -6153,46 +6153,46 @@
         <v>9.197186562399322</v>
       </c>
       <c r="L25" t="n">
-        <v>39.09877761163528</v>
+        <v>118.4137769908912</v>
       </c>
       <c r="M25" t="n">
-        <v>152.9139613213269</v>
+        <v>232.2289607005828</v>
       </c>
       <c r="N25" t="n">
-        <v>266.7291450310185</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="O25" t="n">
-        <v>380.5443287407101</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="P25" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="Q25" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="R25" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S25" t="n">
-        <v>314.6326476604213</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="T25" t="n">
-        <v>198.5065547008339</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U25" t="n">
-        <v>198.5065547008339</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="V25" t="n">
-        <v>198.5065547008339</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="W25" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="X25" t="n">
-        <v>82.38046174124646</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.38046174124646</v>
+        <v>241.4493724815741</v>
       </c>
     </row>
     <row r="26">
@@ -6226,52 +6226,52 @@
         <v>9.197186562399322</v>
       </c>
       <c r="J26" t="n">
-        <v>9.197186562399322</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="K26" t="n">
         <v>123.0123702720909</v>
       </c>
       <c r="L26" t="n">
-        <v>128.1511146038452</v>
+        <v>236.8275539817825</v>
       </c>
       <c r="M26" t="n">
-        <v>165.5383952470543</v>
+        <v>274.2148346249916</v>
       </c>
       <c r="N26" t="n">
-        <v>208.1444495571019</v>
+        <v>316.8208889350392</v>
       </c>
       <c r="O26" t="n">
-        <v>235.0408772291707</v>
+        <v>343.717316607108</v>
       </c>
       <c r="P26" t="n">
-        <v>348.8560609388624</v>
+        <v>457.5325003167997</v>
       </c>
       <c r="Q26" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="R26" t="n">
-        <v>459.8593281199661</v>
+        <v>405.3596617203644</v>
       </c>
       <c r="S26" t="n">
-        <v>343.7332351603787</v>
+        <v>405.3596617203644</v>
       </c>
       <c r="T26" t="n">
-        <v>227.6071422007913</v>
+        <v>289.2335687607771</v>
       </c>
       <c r="U26" t="n">
-        <v>227.6071422007913</v>
+        <v>289.2335687607771</v>
       </c>
       <c r="V26" t="n">
-        <v>111.4810492412038</v>
+        <v>173.1074758011897</v>
       </c>
       <c r="W26" t="n">
-        <v>111.4810492412038</v>
+        <v>173.1074758011897</v>
       </c>
       <c r="X26" t="n">
-        <v>111.4810492412038</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.4810492412038</v>
+        <v>9.197186562399322</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>177.6735411232204</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="C27" t="n">
-        <v>61.54744816363304</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="D27" t="n">
-        <v>61.54744816363304</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="E27" t="n">
-        <v>61.54744816363304</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="F27" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="G27" t="n">
         <v>9.197186562399322</v>
@@ -6308,49 +6308,49 @@
         <v>84.87159870672743</v>
       </c>
       <c r="K27" t="n">
-        <v>198.686782416419</v>
+        <v>84.87159870672743</v>
       </c>
       <c r="L27" t="n">
-        <v>237.1296718312747</v>
+        <v>123.3144881215831</v>
       </c>
       <c r="M27" t="n">
-        <v>301.3475787167264</v>
+        <v>187.5323950070348</v>
       </c>
       <c r="N27" t="n">
-        <v>381.6737874268377</v>
+        <v>267.8586037171461</v>
       </c>
       <c r="O27" t="n">
-        <v>432.9367801992308</v>
+        <v>319.1215964895392</v>
       </c>
       <c r="P27" t="n">
-        <v>459.8593281199661</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="Q27" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="R27" t="n">
-        <v>409.9257270423953</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S27" t="n">
-        <v>293.7996340828079</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="T27" t="n">
-        <v>177.6735411232204</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U27" t="n">
-        <v>177.6735411232204</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="V27" t="n">
-        <v>177.6735411232204</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W27" t="n">
-        <v>177.6735411232204</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="X27" t="n">
-        <v>177.6735411232204</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.6735411232204</v>
+        <v>227.6071422007912</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="C28" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="D28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="E28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="F28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="G28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="H28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="I28" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="J28" t="n">
         <v>9.197186562399322</v>
       </c>
       <c r="K28" t="n">
-        <v>9.197186562399322</v>
+        <v>65.92954664031396</v>
       </c>
       <c r="L28" t="n">
-        <v>123.0123702720909</v>
+        <v>179.7447303500056</v>
       </c>
       <c r="M28" t="n">
-        <v>236.8275539817826</v>
+        <v>293.5599140596972</v>
       </c>
       <c r="N28" t="n">
-        <v>346.0441444102745</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="O28" t="n">
         <v>459.8593281199661</v>
@@ -6405,31 +6405,31 @@
         <v>459.8593281199661</v>
       </c>
       <c r="Q28" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="R28" t="n">
-        <v>314.6326476604213</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="S28" t="n">
-        <v>198.5065547008339</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="T28" t="n">
-        <v>198.5065547008339</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="U28" t="n">
-        <v>198.5065547008339</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="V28" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W28" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="X28" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.1074758011897</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="C29" t="n">
-        <v>173.1074758011897</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="D29" t="n">
-        <v>173.1074758011897</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="E29" t="n">
-        <v>125.3232795219867</v>
+        <v>241.4493724815741</v>
       </c>
       <c r="F29" t="n">
         <v>125.3232795219867</v>
       </c>
       <c r="G29" t="n">
-        <v>125.3232795219867</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="H29" t="n">
-        <v>125.3232795219867</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="I29" t="n">
         <v>9.197186562399322</v>
       </c>
       <c r="J29" t="n">
-        <v>11.52401436556573</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="K29" t="n">
-        <v>125.3391980752573</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="L29" t="n">
-        <v>239.154381784949</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="M29" t="n">
-        <v>276.541662428158</v>
+        <v>160.3996509153</v>
       </c>
       <c r="N29" t="n">
-        <v>319.1477167382056</v>
+        <v>274.2148346249916</v>
       </c>
       <c r="O29" t="n">
-        <v>346.0441444102745</v>
+        <v>301.1112622970604</v>
       </c>
       <c r="P29" t="n">
-        <v>459.8593281199661</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="Q29" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="R29" t="n">
-        <v>405.3596617203645</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S29" t="n">
-        <v>405.3596617203645</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="T29" t="n">
-        <v>289.2335687607771</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U29" t="n">
-        <v>289.2335687607771</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="V29" t="n">
-        <v>289.2335687607771</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W29" t="n">
-        <v>289.2335687607771</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="X29" t="n">
-        <v>289.2335687607771</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="Y29" t="n">
-        <v>289.2335687607771</v>
+        <v>343.7332351603786</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.3232795219867</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="C30" t="n">
-        <v>9.197186562399322</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="D30" t="n">
-        <v>9.197186562399322</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="E30" t="n">
-        <v>9.197186562399322</v>
+        <v>177.6735411232205</v>
       </c>
       <c r="F30" t="n">
-        <v>9.197186562399322</v>
+        <v>61.54744816363308</v>
       </c>
       <c r="G30" t="n">
-        <v>9.197186562399322</v>
+        <v>61.54744816363308</v>
       </c>
       <c r="H30" t="n">
-        <v>9.197186562399322</v>
+        <v>61.54744816363308</v>
       </c>
       <c r="I30" t="n">
         <v>9.197186562399322</v>
@@ -6545,49 +6545,49 @@
         <v>9.197186562399322</v>
       </c>
       <c r="K30" t="n">
-        <v>9.197186562399322</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="L30" t="n">
-        <v>47.64007597725502</v>
+        <v>161.4552596869466</v>
       </c>
       <c r="M30" t="n">
-        <v>111.8579828627067</v>
+        <v>225.6731665723983</v>
       </c>
       <c r="N30" t="n">
-        <v>192.184191572818</v>
+        <v>305.9993752825096</v>
       </c>
       <c r="O30" t="n">
-        <v>243.4471843452111</v>
+        <v>357.2623680549027</v>
       </c>
       <c r="P30" t="n">
-        <v>357.2623680549027</v>
+        <v>379.0723729367456</v>
       </c>
       <c r="Q30" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="R30" t="n">
-        <v>409.9257270423953</v>
+        <v>409.9257270423952</v>
       </c>
       <c r="S30" t="n">
-        <v>409.9257270423953</v>
+        <v>409.9257270423952</v>
       </c>
       <c r="T30" t="n">
-        <v>409.9257270423953</v>
+        <v>409.9257270423952</v>
       </c>
       <c r="U30" t="n">
-        <v>409.9257270423953</v>
+        <v>409.9257270423952</v>
       </c>
       <c r="V30" t="n">
-        <v>357.5754654411616</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="W30" t="n">
-        <v>357.5754654411616</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="X30" t="n">
-        <v>357.5754654411616</v>
+        <v>293.7996340828079</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.4493724815741</v>
+        <v>293.7996340828079</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="C31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="D31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="E31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="F31" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="G31" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="H31" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="I31" t="n">
         <v>9.197186562399322</v>
@@ -6624,49 +6624,49 @@
         <v>9.197186562399322</v>
       </c>
       <c r="K31" t="n">
-        <v>65.92954664031396</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="L31" t="n">
-        <v>179.7447303500056</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="M31" t="n">
-        <v>179.7447303500056</v>
+        <v>236.8275539817825</v>
       </c>
       <c r="N31" t="n">
-        <v>293.5599140596972</v>
+        <v>350.6427376914741</v>
       </c>
       <c r="O31" t="n">
-        <v>407.3750977693888</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="P31" t="n">
         <v>459.8593281199661</v>
       </c>
       <c r="Q31" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="R31" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S31" t="n">
-        <v>314.6326476604213</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="T31" t="n">
-        <v>198.5065547008339</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U31" t="n">
-        <v>198.5065547008339</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="V31" t="n">
-        <v>125.3232795219867</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="X31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>125.3232795219867</v>
       </c>
       <c r="C32" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="D32" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="E32" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="F32" t="n">
-        <v>9.197186562399322</v>
+        <v>125.3232795219867</v>
       </c>
       <c r="G32" t="n">
         <v>9.197186562399322</v>
@@ -6700,22 +6700,22 @@
         <v>9.197186562399322</v>
       </c>
       <c r="J32" t="n">
-        <v>9.197186562399322</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="K32" t="n">
-        <v>9.197186562399322</v>
+        <v>123.0123702720909</v>
       </c>
       <c r="L32" t="n">
-        <v>123.0123702720909</v>
+        <v>128.1511146038452</v>
       </c>
       <c r="M32" t="n">
-        <v>160.3996509153</v>
+        <v>241.9662983135368</v>
       </c>
       <c r="N32" t="n">
-        <v>232.2289607005829</v>
+        <v>355.7814820232284</v>
       </c>
       <c r="O32" t="n">
-        <v>346.0441444102745</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="P32" t="n">
         <v>459.8593281199661</v>
@@ -6730,13 +6730,13 @@
         <v>459.8593281199661</v>
       </c>
       <c r="T32" t="n">
-        <v>357.5754654411616</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U32" t="n">
-        <v>357.5754654411616</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="V32" t="n">
-        <v>357.5754654411616</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W32" t="n">
         <v>241.4493724815741</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.54744816363304</v>
+        <v>292.6100470849811</v>
       </c>
       <c r="C33" t="n">
-        <v>9.197186562399322</v>
+        <v>292.6100470849811</v>
       </c>
       <c r="D33" t="n">
-        <v>9.197186562399322</v>
+        <v>292.6100470849811</v>
       </c>
       <c r="E33" t="n">
-        <v>9.197186562399322</v>
+        <v>292.6100470849811</v>
       </c>
       <c r="F33" t="n">
-        <v>9.197186562399322</v>
+        <v>176.4839541253938</v>
       </c>
       <c r="G33" t="n">
-        <v>9.197186562399322</v>
+        <v>176.4839541253938</v>
       </c>
       <c r="H33" t="n">
-        <v>9.197186562399322</v>
+        <v>71.08469097361554</v>
       </c>
       <c r="I33" t="n">
         <v>9.197186562399322</v>
@@ -6785,16 +6785,16 @@
         <v>84.87159870672743</v>
       </c>
       <c r="L33" t="n">
-        <v>198.686782416419</v>
+        <v>123.3144881215831</v>
       </c>
       <c r="M33" t="n">
-        <v>262.9046893018707</v>
+        <v>187.5323950070348</v>
       </c>
       <c r="N33" t="n">
-        <v>343.230898011982</v>
+        <v>267.8586037171461</v>
       </c>
       <c r="O33" t="n">
-        <v>438.0493232381232</v>
+        <v>346.0441444102744</v>
       </c>
       <c r="P33" t="n">
         <v>459.8593281199661</v>
@@ -6803,28 +6803,28 @@
         <v>459.8593281199661</v>
       </c>
       <c r="R33" t="n">
-        <v>409.9257270423953</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S33" t="n">
-        <v>293.7996340828079</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="T33" t="n">
-        <v>177.6735411232204</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="U33" t="n">
-        <v>177.6735411232204</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="V33" t="n">
-        <v>61.54744816363304</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="W33" t="n">
-        <v>61.54744816363304</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="X33" t="n">
-        <v>61.54744816363304</v>
+        <v>292.6100470849811</v>
       </c>
       <c r="Y33" t="n">
-        <v>61.54744816363304</v>
+        <v>292.6100470849811</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="C34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="D34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="E34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="F34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="G34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="H34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
       <c r="I34" t="n">
-        <v>9.197186562399322</v>
+        <v>54.58662694204449</v>
       </c>
       <c r="J34" t="n">
         <v>9.197186562399322</v>
       </c>
       <c r="K34" t="n">
-        <v>39.09877761163528</v>
+        <v>9.197186562399322</v>
       </c>
       <c r="L34" t="n">
-        <v>152.9139613213269</v>
+        <v>39.09877761163524</v>
       </c>
       <c r="M34" t="n">
-        <v>152.9139613213269</v>
+        <v>152.9139613213268</v>
       </c>
       <c r="N34" t="n">
-        <v>266.7291450310185</v>
+        <v>266.7291450310184</v>
       </c>
       <c r="O34" t="n">
         <v>380.5443287407101</v>
@@ -6879,31 +6879,31 @@
         <v>459.8593281199661</v>
       </c>
       <c r="Q34" t="n">
-        <v>430.7587406200087</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="R34" t="n">
-        <v>314.6326476604213</v>
+        <v>459.8593281199661</v>
       </c>
       <c r="S34" t="n">
-        <v>198.5065547008339</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="T34" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="U34" t="n">
-        <v>82.38046174124646</v>
+        <v>343.7332351603786</v>
       </c>
       <c r="V34" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="W34" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="X34" t="n">
-        <v>9.197186562399322</v>
+        <v>227.6071422007912</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.197186562399322</v>
+        <v>111.4810492412038</v>
       </c>
     </row>
     <row r="35">
@@ -6913,64 +6913,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H35" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I35" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J35" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K35" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L35" t="n">
-        <v>9.73733761295393</v>
+        <v>16.60083418539804</v>
       </c>
       <c r="M35" t="n">
-        <v>47.12461825616298</v>
+        <v>73.50842604024385</v>
       </c>
       <c r="N35" t="n">
-        <v>89.73067256621059</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="O35" t="n">
-        <v>116.6271002382794</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="P35" t="n">
-        <v>173.0220722051373</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="Q35" t="n">
         <v>229.9296640599831</v>
       </c>
       <c r="R35" t="n">
-        <v>178.7877327205808</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="S35" t="n">
-        <v>178.7877327205808</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="T35" t="n">
-        <v>120.7246862407871</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="U35" t="n">
-        <v>120.7246862407871</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="V35" t="n">
         <v>62.66163976099337</v>
@@ -6979,10 +6979,10 @@
         <v>62.66163976099337</v>
       </c>
       <c r="X35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="Y35" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.806923543031132</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="C36" t="n">
-        <v>5.806923543031132</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="D36" t="n">
-        <v>5.806923543031132</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="E36" t="n">
-        <v>5.806923543031132</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="F36" t="n">
-        <v>5.806923543031132</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="G36" t="n">
-        <v>5.806923543031132</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="H36" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I36" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J36" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K36" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L36" t="n">
         <v>43.04148269605536</v>
@@ -7031,7 +7031,7 @@
         <v>156.856666405747</v>
       </c>
       <c r="O36" t="n">
-        <v>208.1196591781402</v>
+        <v>208.1196591781401</v>
       </c>
       <c r="P36" t="n">
         <v>229.9296640599831</v>
@@ -7040,28 +7040,28 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R36" t="n">
-        <v>179.9960629824123</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="S36" t="n">
-        <v>179.9960629824123</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T36" t="n">
-        <v>179.9960629824123</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="U36" t="n">
-        <v>121.9330165026186</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="V36" t="n">
-        <v>63.86997002282484</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="W36" t="n">
-        <v>63.86997002282484</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="X36" t="n">
-        <v>63.86997002282484</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.86997002282484</v>
+        <v>178.7877327205808</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
       <c r="C37" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
       <c r="D37" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="E37" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="F37" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="G37" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="H37" t="n">
-        <v>4.598593281199662</v>
+        <v>55.74052462060192</v>
       </c>
       <c r="I37" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J37" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K37" t="n">
         <v>61.3309533591143</v>
@@ -7104,13 +7104,13 @@
         <v>61.3309533591143</v>
       </c>
       <c r="M37" t="n">
-        <v>61.3309533591143</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="N37" t="n">
-        <v>118.2385452139601</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="O37" t="n">
-        <v>175.1461370688059</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P37" t="n">
         <v>229.9296640599831</v>
@@ -7122,25 +7122,25 @@
         <v>229.9296640599831</v>
       </c>
       <c r="S37" t="n">
-        <v>178.7877327205808</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="T37" t="n">
-        <v>178.7877327205808</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="U37" t="n">
-        <v>120.7246862407871</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="V37" t="n">
-        <v>62.66163976099337</v>
+        <v>171.8666175801893</v>
       </c>
       <c r="W37" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
       <c r="X37" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.598593281199662</v>
+        <v>113.8035711003956</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.66163976099337</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="C38" t="n">
-        <v>62.66163976099337</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="D38" t="n">
         <v>62.66163976099337</v>
       </c>
       <c r="E38" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F38" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G38" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H38" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I38" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J38" t="n">
+        <v>4.598593281199661</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.598593281199661</v>
+      </c>
+      <c r="L38" t="n">
         <v>61.50618513604547</v>
       </c>
-      <c r="K38" t="n">
-        <v>61.50618513604547</v>
-      </c>
-      <c r="L38" t="n">
-        <v>66.64492946779974</v>
-      </c>
       <c r="M38" t="n">
-        <v>104.0322101110088</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="N38" t="n">
-        <v>146.6382644210564</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="O38" t="n">
-        <v>203.5458562759022</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P38" t="n">
         <v>229.9296640599831</v>
@@ -7198,25 +7198,25 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="S38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="T38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="U38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="V38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="W38" t="n">
-        <v>175.4299976603815</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="X38" t="n">
-        <v>120.7246862407871</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="Y38" t="n">
         <v>120.7246862407871</v>
@@ -7232,31 +7232,31 @@
         <v>62.66163976099337</v>
       </c>
       <c r="C39" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="D39" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="E39" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="F39" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="G39" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="H39" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I39" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J39" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K39" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L39" t="n">
         <v>43.04148269605536</v>
@@ -7268,7 +7268,7 @@
         <v>156.856666405747</v>
       </c>
       <c r="O39" t="n">
-        <v>208.1196591781402</v>
+        <v>208.1196591781401</v>
       </c>
       <c r="P39" t="n">
         <v>229.9296640599831</v>
@@ -7277,22 +7277,22 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R39" t="n">
-        <v>229.9296640599831</v>
+        <v>179.9960629824122</v>
       </c>
       <c r="S39" t="n">
-        <v>229.9296640599831</v>
+        <v>179.9960629824122</v>
       </c>
       <c r="T39" t="n">
-        <v>171.8666175801894</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="U39" t="n">
-        <v>171.8666175801894</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="V39" t="n">
-        <v>171.8666175801894</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="W39" t="n">
-        <v>113.8035711003957</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="X39" t="n">
         <v>62.66163976099337</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J40" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K40" t="n">
-        <v>4.598593281199662</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="L40" t="n">
-        <v>61.50618513604547</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="M40" t="n">
-        <v>61.50618513604547</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="N40" t="n">
-        <v>118.4137769908913</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="O40" t="n">
-        <v>173.0220722051373</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="P40" t="n">
         <v>229.9296640599831</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.8290765600257</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="R40" t="n">
-        <v>142.766030080232</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="S40" t="n">
-        <v>84.7029836004383</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="T40" t="n">
-        <v>26.63993712064459</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="U40" t="n">
-        <v>26.63993712064459</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="V40" t="n">
-        <v>26.63993712064459</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="W40" t="n">
-        <v>26.63993712064459</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="X40" t="n">
-        <v>26.63993712064459</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.63993712064459</v>
+        <v>4.598593281199661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62.66163976099337</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="C41" t="n">
         <v>62.66163976099337</v>
@@ -7396,37 +7396,37 @@
         <v>62.66163976099337</v>
       </c>
       <c r="E41" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F41" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G41" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H41" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I41" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J41" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K41" t="n">
+        <v>4.598593281199661</v>
+      </c>
+      <c r="L41" t="n">
         <v>61.50618513604547</v>
       </c>
-      <c r="L41" t="n">
-        <v>93.02873725188063</v>
-      </c>
       <c r="M41" t="n">
-        <v>130.4160178950897</v>
+        <v>103.5195902230208</v>
       </c>
       <c r="N41" t="n">
-        <v>173.0220722051373</v>
+        <v>146.1256445330684</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9296640599831</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="P41" t="n">
         <v>229.9296640599831</v>
@@ -7435,28 +7435,28 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R41" t="n">
-        <v>229.9296640599831</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="S41" t="n">
-        <v>229.9296640599831</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="T41" t="n">
-        <v>229.9296640599831</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="U41" t="n">
-        <v>229.9296640599831</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="V41" t="n">
-        <v>229.9296640599831</v>
+        <v>175.4299976603814</v>
       </c>
       <c r="W41" t="n">
-        <v>171.8666175801894</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="X41" t="n">
-        <v>113.8035711003957</v>
+        <v>117.3669511805877</v>
       </c>
       <c r="Y41" t="n">
-        <v>113.8035711003957</v>
+        <v>117.3669511805877</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="C42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="D42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="E42" t="n">
-        <v>55.74052462060195</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="F42" t="n">
-        <v>55.74052462060195</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="G42" t="n">
-        <v>55.74052462060195</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="H42" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="I42" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J42" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K42" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="L42" t="n">
-        <v>43.04148269605536</v>
+        <v>43.04148269605537</v>
       </c>
       <c r="M42" t="n">
-        <v>99.94907455090126</v>
+        <v>99.94907455090117</v>
       </c>
       <c r="N42" t="n">
-        <v>156.8566664057471</v>
+        <v>156.856666405747</v>
       </c>
       <c r="O42" t="n">
         <v>208.1196591781402</v>
@@ -7514,28 +7514,28 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R42" t="n">
-        <v>229.9296640599831</v>
+        <v>179.9960629824122</v>
       </c>
       <c r="S42" t="n">
-        <v>171.8666175801894</v>
+        <v>179.9960629824122</v>
       </c>
       <c r="T42" t="n">
-        <v>113.8035711003957</v>
+        <v>179.9960629824122</v>
       </c>
       <c r="U42" t="n">
-        <v>113.8035711003957</v>
+        <v>121.9330165026185</v>
       </c>
       <c r="V42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="W42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="X42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="C43" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="D43" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="E43" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="F43" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="G43" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="H43" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="I43" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="J43" t="n">
-        <v>4.598593281199662</v>
+        <v>4.598593281199661</v>
       </c>
       <c r="K43" t="n">
-        <v>4.598593281199662</v>
+        <v>61.3309533591143</v>
       </c>
       <c r="L43" t="n">
-        <v>61.50618513604547</v>
+        <v>116.1144803502914</v>
       </c>
       <c r="M43" t="n">
-        <v>118.4137769908913</v>
+        <v>173.0220722051372</v>
       </c>
       <c r="N43" t="n">
-        <v>175.3213688457371</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="O43" t="n">
-        <v>175.3213688457371</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P43" t="n">
         <v>229.9296640599831</v>
@@ -7593,19 +7593,19 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R43" t="n">
-        <v>171.8666175801894</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="S43" t="n">
-        <v>171.8666175801894</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="T43" t="n">
-        <v>171.8666175801894</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="U43" t="n">
-        <v>113.8035711003957</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="V43" t="n">
-        <v>113.8035711003957</v>
+        <v>62.66163976099337</v>
       </c>
       <c r="W43" t="n">
         <v>62.66163976099337</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.74052462060195</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="C44" t="n">
-        <v>55.74052462060195</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="D44" t="n">
-        <v>55.74052462060195</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="E44" t="n">
-        <v>55.74052462060195</v>
+        <v>120.7246862407871</v>
       </c>
       <c r="F44" t="n">
-        <v>4.598593281199662</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="G44" t="n">
         <v>4.598593281199662</v>
@@ -7648,52 +7648,52 @@
         <v>4.598593281199662</v>
       </c>
       <c r="J44" t="n">
-        <v>60.99356524805751</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="K44" t="n">
-        <v>60.99356524805751</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="L44" t="n">
-        <v>66.13230957981177</v>
+        <v>61.50618513604548</v>
       </c>
       <c r="M44" t="n">
-        <v>103.5195902230208</v>
+        <v>118.4137769908913</v>
       </c>
       <c r="N44" t="n">
-        <v>146.1256445330684</v>
+        <v>173.0220722051373</v>
       </c>
       <c r="O44" t="n">
-        <v>173.0220722051373</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="P44" t="n">
-        <v>173.0220722051373</v>
+        <v>229.9296640599831</v>
       </c>
       <c r="Q44" t="n">
         <v>229.9296640599831</v>
       </c>
       <c r="R44" t="n">
-        <v>229.9296640599831</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="S44" t="n">
-        <v>229.9296640599831</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="T44" t="n">
-        <v>171.8666175801894</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="U44" t="n">
-        <v>171.8666175801894</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="V44" t="n">
-        <v>171.8666175801894</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="W44" t="n">
-        <v>113.8035711003957</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="X44" t="n">
-        <v>113.8035711003957</v>
+        <v>178.7877327205808</v>
       </c>
       <c r="Y44" t="n">
-        <v>113.8035711003957</v>
+        <v>178.7877327205808</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113.8035711003957</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="C45" t="n">
-        <v>113.8035711003957</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="D45" t="n">
-        <v>113.8035711003957</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="E45" t="n">
-        <v>55.74052462060195</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="F45" t="n">
         <v>4.598593281199662</v>
@@ -7733,13 +7733,13 @@
         <v>4.598593281199662</v>
       </c>
       <c r="L45" t="n">
-        <v>43.04148269605536</v>
+        <v>43.04148269605537</v>
       </c>
       <c r="M45" t="n">
-        <v>99.94907455090126</v>
+        <v>99.9490745509012</v>
       </c>
       <c r="N45" t="n">
-        <v>156.8566664057471</v>
+        <v>156.856666405747</v>
       </c>
       <c r="O45" t="n">
         <v>208.1196591781402</v>
@@ -7760,19 +7760,19 @@
         <v>229.9296640599831</v>
       </c>
       <c r="U45" t="n">
-        <v>229.9296640599831</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="V45" t="n">
-        <v>229.9296640599831</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="W45" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="X45" t="n">
-        <v>229.9296640599831</v>
+        <v>55.74052462060197</v>
       </c>
       <c r="Y45" t="n">
-        <v>171.8666175801894</v>
+        <v>4.598593281199662</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="C46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="D46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="E46" t="n">
-        <v>171.8666175801894</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8035711003957</v>
+        <v>62.66163976099338</v>
       </c>
       <c r="G46" t="n">
-        <v>62.66163976099337</v>
+        <v>4.598593281199662</v>
       </c>
       <c r="H46" t="n">
         <v>4.598593281199662</v>
@@ -7812,16 +7812,16 @@
         <v>4.598593281199662</v>
       </c>
       <c r="L46" t="n">
-        <v>61.50618513604547</v>
+        <v>61.50618513604548</v>
       </c>
       <c r="M46" t="n">
+        <v>61.50618513604548</v>
+      </c>
+      <c r="N46" t="n">
         <v>118.4137769908913</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>175.3213688457371</v>
-      </c>
-      <c r="O46" t="n">
-        <v>229.9296640599831</v>
       </c>
       <c r="P46" t="n">
         <v>229.9296640599831</v>
@@ -7830,28 +7830,28 @@
         <v>229.9296640599831</v>
       </c>
       <c r="R46" t="n">
-        <v>229.9296640599831</v>
+        <v>171.8666175801894</v>
       </c>
       <c r="S46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="X46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
       <c r="Y46" t="n">
-        <v>229.9296640599831</v>
+        <v>113.8035711003957</v>
       </c>
     </row>
   </sheetData>
@@ -8692,25 +8692,25 @@
         <v>51.45174858160362</v>
       </c>
       <c r="K11" t="n">
-        <v>25.86180510263316</v>
+        <v>83.34422111762893</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>52.29176517483995</v>
       </c>
       <c r="M11" t="n">
-        <v>19.71748607236034</v>
+        <v>4.672852973501314</v>
       </c>
       <c r="N11" t="n">
-        <v>14.44599751999817</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>69.14455956215838</v>
+        <v>11.66214354716263</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.21825867465324</v>
+        <v>57.41712411867056</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>49.43835212453673</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>88.21608737943177</v>
+        <v>33.05619322362777</v>
       </c>
       <c r="M13" t="n">
-        <v>89.04434198520215</v>
+        <v>31.5619259702064</v>
       </c>
       <c r="N13" t="n">
-        <v>22.87455906051517</v>
+        <v>80.35697507551095</v>
       </c>
       <c r="O13" t="n">
-        <v>99.12904529601009</v>
+        <v>99.12904529601012</v>
       </c>
       <c r="P13" t="n">
-        <v>112.3728183398894</v>
+        <v>110.2272982755776</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8929,13 +8929,13 @@
         <v>51.45174858160362</v>
       </c>
       <c r="K14" t="n">
-        <v>83.3442211176289</v>
+        <v>83.34422111762893</v>
       </c>
       <c r="L14" t="n">
-        <v>37.24713207598084</v>
+        <v>52.29176517483995</v>
       </c>
       <c r="M14" t="n">
-        <v>19.71748607236037</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>11.66214354716263</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.41712411867056</v>
+        <v>62.08997709217189</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,16 +9090,16 @@
         <v>49.43835212453673</v>
       </c>
       <c r="L16" t="n">
-        <v>33.05619322362777</v>
+        <v>88.21608737943183</v>
       </c>
       <c r="M16" t="n">
-        <v>86.72182012601039</v>
+        <v>31.5619259702064</v>
       </c>
       <c r="N16" t="n">
-        <v>80.35697507551092</v>
+        <v>80.35697507551095</v>
       </c>
       <c r="O16" t="n">
-        <v>99.12904529601009</v>
+        <v>99.12904529601012</v>
       </c>
       <c r="P16" t="n">
         <v>112.3728183398894</v>
@@ -9166,10 +9166,10 @@
         <v>108.9341645965994</v>
       </c>
       <c r="K17" t="n">
-        <v>25.86180510263316</v>
+        <v>82.82642325097439</v>
       </c>
       <c r="L17" t="n">
-        <v>52.29176517483992</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>11.66214354716263</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.08997709217183</v>
+        <v>57.41712411867056</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>49.43835212453673</v>
       </c>
       <c r="L19" t="n">
         <v>33.05619322362777</v>
       </c>
       <c r="M19" t="n">
-        <v>86.89882192089036</v>
+        <v>89.04434198520217</v>
       </c>
       <c r="N19" t="n">
-        <v>80.35697507551092</v>
+        <v>80.35697507551093</v>
       </c>
       <c r="O19" t="n">
-        <v>99.12904529601009</v>
+        <v>99.1290452960101</v>
       </c>
       <c r="P19" t="n">
-        <v>54.89040232489364</v>
+        <v>110.0502964806977</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9403,16 +9403,16 @@
         <v>51.45174858160362</v>
       </c>
       <c r="K20" t="n">
-        <v>25.86180510263316</v>
+        <v>83.34422111762892</v>
       </c>
       <c r="L20" t="n">
-        <v>52.29176517483995</v>
+        <v>52.29176517483994</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14.44599751999819</v>
+        <v>4.672852973501264</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>11.66214354716263</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.1263955871694</v>
+        <v>57.41712411867056</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9564,13 +9564,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>88.3930891743118</v>
+        <v>88.39308917431177</v>
       </c>
       <c r="M22" t="n">
-        <v>89.04434198520218</v>
+        <v>89.04434198520215</v>
       </c>
       <c r="N22" t="n">
-        <v>80.35697507551095</v>
+        <v>80.35697507551092</v>
       </c>
       <c r="O22" t="n">
         <v>41.64662928101434</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.64784735075492</v>
+        <v>118.735118398214</v>
       </c>
       <c r="K23" t="n">
-        <v>140.8266371326247</v>
+        <v>25.86180510263316</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>109.7741811898357</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>77.19990208735612</v>
       </c>
       <c r="N23" t="n">
-        <v>71.92841353499398</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>87.79672327032603</v>
       </c>
       <c r="P23" t="n">
-        <v>126.6269755771542</v>
+        <v>11.66214354716263</v>
       </c>
       <c r="Q23" t="n">
         <v>57.41712411867056</v>
@@ -9722,22 +9722,22 @@
         <v>5.919311040361663</v>
       </c>
       <c r="L24" t="n">
-        <v>76.13363060084436</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>33.8272474743236</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>86.60693898837957</v>
+        <v>81.602985033556</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.69675326979372</v>
+        <v>150.6615852997852</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,7 +9801,7 @@
         <v>49.43835212453673</v>
       </c>
       <c r="L25" t="n">
-        <v>63.25982054608833</v>
+        <v>143.3759815352358</v>
       </c>
       <c r="M25" t="n">
         <v>146.5267580001979</v>
@@ -9810,10 +9810,10 @@
         <v>137.8393910905067</v>
       </c>
       <c r="O25" t="n">
-        <v>156.6114613110059</v>
+        <v>156.6114613110058</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>54.89040232489364</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.45174858160362</v>
+        <v>166.4165806115951</v>
       </c>
       <c r="K26" t="n">
-        <v>140.8266371326247</v>
+        <v>25.86180510263316</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>109.7741811898357</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>126.6269755771542</v>
+        <v>126.6269755771541</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.5416364228158</v>
+        <v>59.76745523298005</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>120.8841430703532</v>
+        <v>5.919311040361663</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.164184887770062</v>
+        <v>5.164184887770006</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.69675326979372</v>
+        <v>150.6615852997852</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>49.43835212453673</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>148.0210252536193</v>
@@ -10044,10 +10044,10 @@
         <v>146.5267580001979</v>
       </c>
       <c r="N28" t="n">
-        <v>133.1943473721232</v>
+        <v>75.88893315200735</v>
       </c>
       <c r="O28" t="n">
-        <v>156.6114613110059</v>
+        <v>156.6114613110058</v>
       </c>
       <c r="P28" t="n">
         <v>54.89040232489364</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>53.80207969591313</v>
+        <v>51.45174858160362</v>
       </c>
       <c r="K29" t="n">
-        <v>140.8266371326247</v>
+        <v>25.86180510263316</v>
       </c>
       <c r="L29" t="n">
         <v>109.7741811898357</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>71.92841353499394</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>126.6269755771542</v>
+        <v>57.04889315646972</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.41712411867056</v>
+        <v>172.3819561486621</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>49.65223519462288</v>
       </c>
       <c r="K30" t="n">
-        <v>5.919311040361663</v>
+        <v>120.8841430703532</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.93452406853405</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.3300462648073</v>
+        <v>117.2997383033497</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>49.43835212453673</v>
       </c>
       <c r="L31" t="n">
         <v>148.0210252536193</v>
       </c>
       <c r="M31" t="n">
-        <v>31.5619259702064</v>
+        <v>146.5267580001979</v>
       </c>
       <c r="N31" t="n">
         <v>137.8393910905067</v>
       </c>
       <c r="O31" t="n">
-        <v>156.6114613110059</v>
+        <v>151.9664175926223</v>
       </c>
       <c r="P31" t="n">
-        <v>107.9047764163859</v>
+        <v>54.89040232489364</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.45174858160362</v>
+        <v>166.4165806115951</v>
       </c>
       <c r="K32" t="n">
         <v>25.86180510263316</v>
       </c>
       <c r="L32" t="n">
-        <v>109.7741811898357</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>77.19990208735611</v>
       </c>
       <c r="N32" t="n">
-        <v>29.51843987397505</v>
+        <v>71.92841353499394</v>
       </c>
       <c r="O32" t="n">
-        <v>87.79672327032603</v>
+        <v>77.96102871178665</v>
       </c>
       <c r="P32" t="n">
-        <v>126.6269755771542</v>
+        <v>11.66214354716263</v>
       </c>
       <c r="Q32" t="n">
         <v>57.41712411867056</v>
@@ -10433,7 +10433,7 @@
         <v>5.919311040361663</v>
       </c>
       <c r="L33" t="n">
-        <v>76.13363060084436</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>43.99538631691723</v>
+        <v>27.1944928492275</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>92.93452406853402</v>
       </c>
       <c r="Q33" t="n">
         <v>35.69675326979372</v>
@@ -10509,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>79.6419794469973</v>
+        <v>49.43835212453673</v>
       </c>
       <c r="L34" t="n">
-        <v>148.0210252536193</v>
+        <v>63.25982054608829</v>
       </c>
       <c r="M34" t="n">
-        <v>31.5619259702064</v>
+        <v>146.5267580001979</v>
       </c>
       <c r="N34" t="n">
         <v>137.8393910905067</v>
       </c>
       <c r="O34" t="n">
-        <v>156.6114613110059</v>
+        <v>156.6114613110058</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10591,19 +10591,19 @@
         <v>25.86180510263316</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.93282482065062</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>19.71748607236037</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>30.31430725533028</v>
       </c>
       <c r="P35" t="n">
-        <v>68.62676169550389</v>
+        <v>11.66214354716263</v>
       </c>
       <c r="Q35" t="n">
         <v>114.8995401336663</v>
@@ -10752,16 +10752,16 @@
         <v>33.05619322362777</v>
       </c>
       <c r="M37" t="n">
-        <v>31.5619259702064</v>
+        <v>86.89882192089038</v>
       </c>
       <c r="N37" t="n">
-        <v>80.35697507551095</v>
+        <v>80.35697507551092</v>
       </c>
       <c r="O37" t="n">
-        <v>99.1290452960101</v>
+        <v>99.12904529601009</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2272982755776</v>
+        <v>54.89040232489364</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>108.9341645965994</v>
+        <v>51.45174858160362</v>
       </c>
       <c r="K38" t="n">
         <v>25.86180510263316</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>52.29176517483994</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17.39496421316861</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>14.44599751999817</v>
       </c>
       <c r="O38" t="n">
-        <v>30.31430725533027</v>
+        <v>30.31430725533028</v>
       </c>
       <c r="P38" t="n">
-        <v>38.31245444017362</v>
+        <v>11.66214354716263</v>
       </c>
       <c r="Q38" t="n">
         <v>57.41712411867056</v>
@@ -10983,19 +10983,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>49.43835212453673</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>90.53860923862354</v>
+        <v>33.05619322362777</v>
       </c>
       <c r="M40" t="n">
-        <v>31.5619259702064</v>
+        <v>86.89882192089038</v>
       </c>
       <c r="N40" t="n">
-        <v>80.35697507551095</v>
+        <v>22.87455906051517</v>
       </c>
       <c r="O40" t="n">
-        <v>96.80652343681838</v>
+        <v>99.12904529601009</v>
       </c>
       <c r="P40" t="n">
         <v>112.3728183398894</v>
@@ -11062,22 +11062,22 @@
         <v>51.45174858160362</v>
       </c>
       <c r="K41" t="n">
-        <v>83.34422111762893</v>
+        <v>25.86180510263316</v>
       </c>
       <c r="L41" t="n">
-        <v>26.650310893011</v>
+        <v>52.29176517483994</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.672852973501293</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>30.31430725533028</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>11.66214354716263</v>
+        <v>69.14455956215838</v>
       </c>
       <c r="Q41" t="n">
         <v>57.41712411867056</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>49.43835212453673</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.53860923862354</v>
+        <v>88.39308917431177</v>
       </c>
       <c r="M43" t="n">
-        <v>89.04434198520218</v>
+        <v>89.04434198520215</v>
       </c>
       <c r="N43" t="n">
-        <v>80.35697507551095</v>
+        <v>80.35697507551092</v>
       </c>
       <c r="O43" t="n">
         <v>41.64662928101434</v>
       </c>
       <c r="P43" t="n">
-        <v>110.0502964806977</v>
+        <v>54.89040232489364</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4163667299449</v>
+        <v>51.45174858160362</v>
       </c>
       <c r="K44" t="n">
         <v>25.86180510263316</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>52.29176517483995</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>19.71748607236037</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>12.12347566080646</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>30.31430725533028</v>
       </c>
       <c r="P44" t="n">
         <v>11.66214354716263</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.8995401336663</v>
+        <v>57.41712411867056</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11460,19 +11460,19 @@
         <v>49.43835212453673</v>
       </c>
       <c r="L46" t="n">
-        <v>90.53860923862354</v>
+        <v>90.53860923862355</v>
       </c>
       <c r="M46" t="n">
-        <v>89.04434198520218</v>
+        <v>31.5619259702064</v>
       </c>
       <c r="N46" t="n">
         <v>80.35697507551095</v>
       </c>
       <c r="O46" t="n">
-        <v>96.80652343681838</v>
+        <v>99.12904529601012</v>
       </c>
       <c r="P46" t="n">
-        <v>54.89040232489364</v>
+        <v>110.0502964806977</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>324.447954057266</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>349.3936297267156</v>
       </c>
       <c r="G11" t="n">
-        <v>356.2934164683116</v>
+        <v>413.7758324833074</v>
       </c>
       <c r="H11" t="n">
         <v>323.8373859585622</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.324157709597301</v>
       </c>
       <c r="S11" t="n">
-        <v>174.2257211734726</v>
+        <v>116.7433051584768</v>
       </c>
       <c r="T11" t="n">
         <v>216.4118227873058</v>
       </c>
       <c r="U11" t="n">
-        <v>197.0652421998919</v>
+        <v>251.2235005052903</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>312.2486846634733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>115.22608297332</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,7 +23357,7 @@
         <v>104.3452705202604</v>
       </c>
       <c r="I12" t="n">
-        <v>10.6381173410958</v>
+        <v>60.07238240789088</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5083819629388</v>
       </c>
       <c r="T12" t="n">
-        <v>139.389365520325</v>
+        <v>196.8717815353207</v>
       </c>
       <c r="U12" t="n">
         <v>225.8876343036163</v>
@@ -23399,13 +23399,13 @@
         <v>175.3181711344295</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>194.2125671459238</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.2002797623086</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>91.13305700321661</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>156.1376374438256</v>
       </c>
       <c r="I13" t="n">
-        <v>84.22263980264567</v>
+        <v>134.8531518286539</v>
       </c>
       <c r="J13" t="n">
         <v>44.93554597584871</v>
@@ -23469,22 +23469,22 @@
         <v>212.0803621300725</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0191257474036</v>
+        <v>167.5367097324078</v>
       </c>
       <c r="U13" t="n">
-        <v>228.7992542306754</v>
+        <v>235.6511582196629</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.6552273088322</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>229.0405823215952</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.102237337099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>327.7721117668634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>413.7758324833074</v>
       </c>
       <c r="H14" t="n">
-        <v>266.3549699435664</v>
+        <v>323.8373859585622</v>
       </c>
       <c r="I14" t="n">
         <v>151.6098833308701</v>
@@ -23548,10 +23548,10 @@
         <v>174.2257211734726</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4118227873058</v>
+        <v>158.92940677231</v>
       </c>
       <c r="U14" t="n">
-        <v>193.7410844902945</v>
+        <v>251.2235005052903</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>312.2486846634732</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>332.0796803506551</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>136.5265509473606</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3452705202604</v>
+        <v>53.71475849425215</v>
       </c>
       <c r="I15" t="n">
-        <v>3.786213352108298</v>
+        <v>61.26862936710405</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>139.389365520325</v>
       </c>
       <c r="U15" t="n">
-        <v>175.257122277608</v>
+        <v>168.4052182886205</v>
       </c>
       <c r="V15" t="n">
         <v>175.3181711344295</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>94.79053599692297</v>
       </c>
       <c r="G16" t="n">
         <v>167.3060623267639</v>
@@ -23673,10 +23673,10 @@
         <v>156.1376374438256</v>
       </c>
       <c r="I16" t="n">
-        <v>134.8531518286539</v>
+        <v>77.37073581365814</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.93554597584871</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>146.4970310247822</v>
       </c>
       <c r="S16" t="n">
-        <v>212.0803621300725</v>
+        <v>154.5979461150767</v>
       </c>
       <c r="T16" t="n">
-        <v>219.3241596972441</v>
+        <v>167.5367097324078</v>
       </c>
       <c r="U16" t="n">
         <v>286.2816702456712</v>
       </c>
       <c r="V16" t="n">
-        <v>194.6552273088323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.2272393740414</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.102237337099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>307.7904757560118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>349.3936297267157</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.7758324833074</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.95466973560558</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.2257211734726</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4118227873058</v>
+        <v>158.92940677231</v>
       </c>
       <c r="U17" t="n">
         <v>251.2235005052903</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>298.6104566914047</v>
+        <v>295.0827104120146</v>
       </c>
       <c r="X17" t="n">
-        <v>312.2486846634733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>328.7555226410578</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>115.22608297332</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>89.96264954964299</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>100.1626644404052</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S18" t="n">
         <v>156.5083819629388</v>
       </c>
       <c r="T18" t="n">
-        <v>139.389365520325</v>
+        <v>196.8717815353207</v>
       </c>
       <c r="U18" t="n">
-        <v>168.4052182886205</v>
+        <v>225.8876343036163</v>
       </c>
       <c r="V18" t="n">
-        <v>231.6043401902121</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>155.0521837512961</v>
       </c>
     </row>
     <row r="19">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>124.6130322455187</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>87.93863200793548</v>
       </c>
       <c r="G19" t="n">
         <v>167.3060623267639</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.01461500978647</v>
+        <v>89.01461500978645</v>
       </c>
       <c r="S19" t="n">
-        <v>212.0803621300725</v>
+        <v>154.5979461150767</v>
       </c>
       <c r="T19" t="n">
-        <v>167.5367097324079</v>
+        <v>225.0191257474036</v>
       </c>
       <c r="U19" t="n">
-        <v>228.7992542306754</v>
+        <v>286.2816702456712</v>
       </c>
       <c r="V19" t="n">
-        <v>230.3167129227775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>324.447954057266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>349.3936297267157</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7758324833074</v>
+        <v>356.2934164683116</v>
       </c>
       <c r="H20" t="n">
-        <v>323.8373859585622</v>
+        <v>273.2068739325539</v>
       </c>
       <c r="I20" t="n">
         <v>151.6098833308701</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S20" t="n">
         <v>174.2257211734726</v>
       </c>
       <c r="T20" t="n">
-        <v>162.2535644819073</v>
+        <v>216.4118227873058</v>
       </c>
       <c r="U20" t="n">
-        <v>193.7410844902945</v>
+        <v>251.2235005052903</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>270.2698424551392</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>115.22608297332</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S21" t="n">
-        <v>155.3121350037257</v>
+        <v>156.5083819629388</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8717815353207</v>
+        <v>139.389365520325</v>
       </c>
       <c r="U21" t="n">
-        <v>168.4052182886205</v>
+        <v>175.257122277608</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>175.3181711344295</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>194.2125671459239</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.2002797623086</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.80958162495779</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.01461500978644</v>
+        <v>89.01461500978645</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4498501040642</v>
+        <v>154.5979461150767</v>
       </c>
       <c r="T22" t="n">
         <v>225.0191257474036</v>
@@ -24186,13 +24186,13 @@
         <v>286.2816702456712</v>
       </c>
       <c r="V22" t="n">
-        <v>194.6552273088322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.0405823215952</v>
+        <v>264.7020679355405</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.2272393740414</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>280.6693460202453</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>291.9112137117199</v>
       </c>
       <c r="G23" t="n">
-        <v>413.7758324833074</v>
+        <v>298.8110004533159</v>
       </c>
       <c r="H23" t="n">
         <v>323.8373859585622</v>
@@ -24262,19 +24262,19 @@
         <v>216.4118227873058</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2235005052903</v>
+        <v>136.2586684752987</v>
       </c>
       <c r="V23" t="n">
-        <v>212.7874264401434</v>
+        <v>226.4912344181185</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>254.7662686484775</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.273106626062</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.56835161987581</v>
+        <v>51.56835161987583</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5265509473606</v>
+        <v>35.26552689534414</v>
       </c>
       <c r="H24" t="n">
         <v>104.3452705202604</v>
@@ -24335,16 +24335,16 @@
         <v>49.4342650667951</v>
       </c>
       <c r="S24" t="n">
-        <v>55.24735791092232</v>
+        <v>41.5435499329473</v>
       </c>
       <c r="T24" t="n">
-        <v>81.90694950532921</v>
+        <v>81.90694950532922</v>
       </c>
       <c r="U24" t="n">
         <v>225.8876343036163</v>
       </c>
       <c r="V24" t="n">
-        <v>117.8357551194337</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>64.86714815194578</v>
       </c>
       <c r="C25" t="n">
-        <v>94.79537867156917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>31.46913061657766</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R25" t="n">
         <v>146.4970310247822</v>
       </c>
       <c r="S25" t="n">
-        <v>97.11553010008095</v>
+        <v>212.0803621300725</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0542937174121</v>
+        <v>225.0191257474036</v>
       </c>
       <c r="U25" t="n">
         <v>286.2816702456712</v>
@@ -24429,7 +24429,7 @@
         <v>171.5581663065995</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>124.4486313370207</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>281.4728176114641</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>53.95466973560558</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.26088914348105</v>
+        <v>174.2257211734726</v>
       </c>
       <c r="T26" t="n">
         <v>101.4469907573143</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>322.4247463620581</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>271.2731066260621</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>57.74366695832421</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>93.2424534081625</v>
+        <v>43.80818834136743</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5265509473606</v>
+        <v>21.56171891736908</v>
       </c>
       <c r="H27" t="n">
         <v>104.3452705202604</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S27" t="n">
-        <v>41.54354993294729</v>
+        <v>156.5083819629388</v>
       </c>
       <c r="T27" t="n">
-        <v>81.90694950532921</v>
+        <v>196.8717815353207</v>
       </c>
       <c r="U27" t="n">
         <v>225.8876343036163</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>117.8357551194338</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>136.7301511309281</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>64.86714815194578</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>92.28999494204461</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>134.8531518286539</v>
       </c>
       <c r="J28" t="n">
-        <v>44.93554597584871</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R28" t="n">
-        <v>31.53219899479069</v>
+        <v>31.5321989947907</v>
       </c>
       <c r="S28" t="n">
-        <v>97.11553010008095</v>
+        <v>212.0803621300725</v>
       </c>
       <c r="T28" t="n">
         <v>225.0191257474036</v>
@@ -24660,7 +24660,7 @@
         <v>286.2816702456712</v>
       </c>
       <c r="V28" t="n">
-        <v>137.1728112938365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.1332109250361</v>
+        <v>103.6198213221033</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.7690096334891</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>334.6240157558509</v>
+        <v>280.6693460202454</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>291.9112137117199</v>
       </c>
       <c r="G29" t="n">
-        <v>413.7758324833074</v>
+        <v>298.8110004533159</v>
       </c>
       <c r="H29" t="n">
         <v>323.8373859585622</v>
       </c>
       <c r="I29" t="n">
-        <v>36.64505130087861</v>
+        <v>151.6098833308701</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.95466973560558</v>
       </c>
       <c r="S29" t="n">
         <v>174.2257211734726</v>
       </c>
       <c r="T29" t="n">
-        <v>101.4469907573143</v>
+        <v>216.4118227873058</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2235005052903</v>
+        <v>136.2586684752987</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.56835161987581</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>57.74366695832421</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>42.68024842540943</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>30.10438036339237</v>
       </c>
       <c r="G30" t="n">
         <v>136.5265509473606</v>
@@ -24779,7 +24779,7 @@
         <v>104.3452705202604</v>
       </c>
       <c r="I30" t="n">
-        <v>61.26862936710405</v>
+        <v>9.441870381882637</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>225.8876343036163</v>
       </c>
       <c r="V30" t="n">
-        <v>180.9738281642039</v>
+        <v>117.8357551194338</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.71786374731283</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>30.45621599293973</v>
       </c>
       <c r="G31" t="n">
         <v>167.3060623267639</v>
@@ -24858,7 +24858,7 @@
         <v>156.1376374438256</v>
       </c>
       <c r="I31" t="n">
-        <v>134.8531518286539</v>
+        <v>33.59212777663747</v>
       </c>
       <c r="J31" t="n">
         <v>44.93554597584871</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R31" t="n">
         <v>146.4970310247822</v>
       </c>
       <c r="S31" t="n">
-        <v>97.11553010008095</v>
+        <v>212.0803621300725</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0542937174121</v>
+        <v>225.0191257474036</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2816702456712</v>
+        <v>171.3168382156797</v>
       </c>
       <c r="V31" t="n">
-        <v>179.6862008967693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>171.5581663065995</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>250.308059741016</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.7758324833074</v>
+        <v>298.8110004533159</v>
       </c>
       <c r="H32" t="n">
         <v>323.8373859585622</v>
@@ -24970,16 +24970,16 @@
         <v>174.2257211734726</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1507987352893</v>
+        <v>216.4118227873058</v>
       </c>
       <c r="U32" t="n">
         <v>251.2235005052903</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>212.7874264401434</v>
       </c>
       <c r="W32" t="n">
-        <v>234.2761366874215</v>
+        <v>247.9799446653966</v>
       </c>
       <c r="X32" t="n">
         <v>254.7662686484775</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>120.8817400030944</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>30.10438036339237</v>
       </c>
       <c r="G33" t="n">
         <v>136.5265509473606</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3452705202604</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>61.26862936710405</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S33" t="n">
-        <v>41.54354993294729</v>
+        <v>156.5083819629388</v>
       </c>
       <c r="T33" t="n">
-        <v>81.90694950532921</v>
+        <v>196.8717815353207</v>
       </c>
       <c r="U33" t="n">
         <v>225.8876343036163</v>
       </c>
       <c r="V33" t="n">
-        <v>117.8357551194337</v>
+        <v>117.8357551194338</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>155.161029008834</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25095,10 +25095,10 @@
         <v>156.1376374438256</v>
       </c>
       <c r="I34" t="n">
-        <v>134.8531518286539</v>
+        <v>78.52767375248618</v>
       </c>
       <c r="J34" t="n">
-        <v>44.93554597584871</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R34" t="n">
-        <v>31.53219899479069</v>
+        <v>146.4970310247822</v>
       </c>
       <c r="S34" t="n">
-        <v>97.11553010008095</v>
+        <v>97.11553010008096</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0542937174121</v>
+        <v>225.0191257474036</v>
       </c>
       <c r="U34" t="n">
         <v>286.2816702456712</v>
       </c>
       <c r="V34" t="n">
-        <v>179.6862008967693</v>
+        <v>137.1728112938365</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.6198213221033</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>413.7758324833074</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3549699435664</v>
+        <v>323.8373859585622</v>
       </c>
       <c r="I35" t="n">
         <v>151.6098833308701</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.32415770959733</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.2257211734726</v>
+        <v>120.0674628680741</v>
       </c>
       <c r="T35" t="n">
         <v>158.92940677231</v>
@@ -25213,13 +25213,13 @@
         <v>251.2235005052903</v>
       </c>
       <c r="V35" t="n">
-        <v>270.2698424551392</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>312.2486846634733</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.0507676348716</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>89.96264954964299</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,10 +25247,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5265509473606</v>
+        <v>79.04413493236483</v>
       </c>
       <c r="H36" t="n">
-        <v>103.1490235610473</v>
+        <v>46.86285450526466</v>
       </c>
       <c r="I36" t="n">
         <v>61.26862936710405</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.4342650667951</v>
       </c>
       <c r="S36" t="n">
         <v>156.5083819629388</v>
@@ -25289,10 +25289,10 @@
         <v>196.8717815353207</v>
       </c>
       <c r="U36" t="n">
-        <v>168.4052182886205</v>
+        <v>225.8876343036163</v>
       </c>
       <c r="V36" t="n">
-        <v>175.3181711344295</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>155.0521837512961</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>91.13305700321659</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>156.1376374438256</v>
       </c>
       <c r="I37" t="n">
-        <v>134.8531518286539</v>
+        <v>84.22263980264569</v>
       </c>
       <c r="J37" t="n">
         <v>44.93554597584871</v>
@@ -25362,19 +25362,19 @@
         <v>146.4970310247822</v>
       </c>
       <c r="S37" t="n">
-        <v>161.4498501040642</v>
+        <v>212.0803621300725</v>
       </c>
       <c r="T37" t="n">
         <v>225.0191257474036</v>
       </c>
       <c r="U37" t="n">
-        <v>228.7992542306754</v>
+        <v>286.2816702456712</v>
       </c>
       <c r="V37" t="n">
-        <v>194.6552273088322</v>
+        <v>194.6552273088323</v>
       </c>
       <c r="W37" t="n">
-        <v>229.0405823215952</v>
+        <v>229.0405823215953</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.2514256484848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>297.2006256056872</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>324.447954057266</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>356.2934164683116</v>
+        <v>413.7758324833074</v>
       </c>
       <c r="H38" t="n">
         <v>323.8373859585622</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.32415770959733</v>
       </c>
       <c r="S38" t="n">
         <v>174.2257211734726</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>315.5728423730706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>328.7555226410578</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>115.22608297332</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25487,7 +25487,7 @@
         <v>136.5265509473606</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3452705202604</v>
+        <v>46.86285450526466</v>
       </c>
       <c r="I39" t="n">
         <v>61.26862936710405</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>156.5083819629388</v>
       </c>
       <c r="T39" t="n">
-        <v>139.389365520325</v>
+        <v>195.6755345761076</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8876343036163</v>
+        <v>168.4052182886205</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>175.3181711344295</v>
       </c>
       <c r="W39" t="n">
-        <v>194.2125671459238</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>155.1424731774692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.0110497808868</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.80958162495779</v>
       </c>
       <c r="R40" t="n">
-        <v>89.01461500978644</v>
+        <v>95.86651899877397</v>
       </c>
       <c r="S40" t="n">
         <v>154.5979461150767</v>
       </c>
       <c r="T40" t="n">
-        <v>167.5367097324078</v>
+        <v>167.5367097324079</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2816702456712</v>
+        <v>228.7992542306754</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.1033296374723</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>311.1146334656091</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>324.447954057266</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25648,7 +25648,7 @@
         <v>323.8373859585622</v>
       </c>
       <c r="I41" t="n">
-        <v>94.12746731587436</v>
+        <v>151.6098833308701</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.95466973560558</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.2257211734726</v>
@@ -25693,7 +25693,7 @@
         <v>291.7585527024173</v>
       </c>
       <c r="X41" t="n">
-        <v>312.2486846634733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,7 +25715,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>100.1626644404052</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25724,10 +25724,10 @@
         <v>136.5265509473606</v>
       </c>
       <c r="H42" t="n">
-        <v>53.71475849425217</v>
+        <v>104.3452705202604</v>
       </c>
       <c r="I42" t="n">
-        <v>61.26862936710405</v>
+        <v>3.786213352108284</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.4342650667951</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>99.02596594794304</v>
+        <v>156.5083819629388</v>
       </c>
       <c r="T42" t="n">
-        <v>139.389365520325</v>
+        <v>196.8717815353207</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8876343036163</v>
+        <v>168.4052182886205</v>
       </c>
       <c r="V42" t="n">
-        <v>175.3181711344295</v>
+        <v>231.6043401902121</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.3495641669415</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>109.8236463117682</v>
+        <v>167.3060623267639</v>
       </c>
       <c r="H43" t="n">
         <v>156.1376374438256</v>
@@ -25833,22 +25833,22 @@
         <v>28.80958162495779</v>
       </c>
       <c r="R43" t="n">
-        <v>89.01461500978644</v>
+        <v>95.86651899877397</v>
       </c>
       <c r="S43" t="n">
-        <v>212.0803621300725</v>
+        <v>154.5979461150767</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0191257474036</v>
+        <v>167.5367097324079</v>
       </c>
       <c r="U43" t="n">
-        <v>228.7992542306754</v>
+        <v>286.2816702456712</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>235.8924863105827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.2514256484848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>324.447954057266</v>
       </c>
       <c r="F44" t="n">
-        <v>356.2455337157032</v>
+        <v>349.3936297267156</v>
       </c>
       <c r="G44" t="n">
-        <v>413.7758324833074</v>
+        <v>356.2934164683116</v>
       </c>
       <c r="H44" t="n">
         <v>323.8373859585622</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.95466973560558</v>
+        <v>3.324157709597301</v>
       </c>
       <c r="S44" t="n">
         <v>174.2257211734726</v>
       </c>
       <c r="T44" t="n">
-        <v>158.92940677231</v>
+        <v>216.4118227873058</v>
       </c>
       <c r="U44" t="n">
         <v>251.2235005052903</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>291.7585527024173</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.0507676348716</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,10 +25952,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>100.1626644404052</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>94.43870036737562</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5265509473606</v>
@@ -26000,19 +26000,19 @@
         <v>196.8717815353207</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8876343036163</v>
+        <v>168.4052182886205</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>194.2125671459238</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>148.2905691884817</v>
       </c>
       <c r="Y45" t="n">
-        <v>148.2002797623086</v>
+        <v>155.0521837512961</v>
       </c>
     </row>
     <row r="46">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>88.95154663157339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>87.93863200793547</v>
+        <v>94.79053599692297</v>
       </c>
       <c r="G46" t="n">
-        <v>116.6755503007557</v>
+        <v>109.8236463117682</v>
       </c>
       <c r="H46" t="n">
-        <v>98.6552214288298</v>
+        <v>156.1376374438256</v>
       </c>
       <c r="I46" t="n">
         <v>134.8531518286539</v>
@@ -26070,10 +26070,10 @@
         <v>28.80958162495779</v>
       </c>
       <c r="R46" t="n">
-        <v>146.4970310247822</v>
+        <v>89.01461500978644</v>
       </c>
       <c r="S46" t="n">
-        <v>212.0803621300725</v>
+        <v>154.5979461150767</v>
       </c>
       <c r="T46" t="n">
         <v>225.0191257474036</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297440.8899154209</v>
+        <v>297440.8899154208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>297440.8899154207</v>
+        <v>297440.8899154208</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>297440.8899154208</v>
+        <v>297440.8899154207</v>
       </c>
     </row>
     <row r="9">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377785</v>
@@ -26328,16 +26328,16 @@
         <v>206812.720806871</v>
       </c>
       <c r="G2" t="n">
-        <v>206812.720806871</v>
+        <v>206812.7208068711</v>
       </c>
       <c r="H2" t="n">
-        <v>206812.720806871</v>
+        <v>206812.7208068711</v>
       </c>
       <c r="I2" t="n">
-        <v>231239.7355346451</v>
+        <v>231239.735534645</v>
       </c>
       <c r="J2" t="n">
-        <v>231239.7355346451</v>
+        <v>231239.735534645</v>
       </c>
       <c r="K2" t="n">
         <v>231239.735534645</v>
@@ -26346,16 +26346,16 @@
         <v>231239.735534645</v>
       </c>
       <c r="M2" t="n">
-        <v>206812.7208068711</v>
+        <v>206812.720806871</v>
       </c>
       <c r="N2" t="n">
-        <v>206812.7208068711</v>
+        <v>206812.720806871</v>
       </c>
       <c r="O2" t="n">
         <v>206812.720806871</v>
       </c>
       <c r="P2" t="n">
-        <v>206812.720806871</v>
+        <v>206812.7208068711</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15285.78154912368</v>
+        <v>15285.78154912364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,13 +26438,13 @@
         <v>21740.44147040118</v>
       </c>
       <c r="I4" t="n">
-        <v>36949.71073790394</v>
+        <v>36949.71073790393</v>
       </c>
       <c r="J4" t="n">
         <v>36949.71073790394</v>
       </c>
       <c r="K4" t="n">
-        <v>36949.71073790395</v>
+        <v>36949.71073790394</v>
       </c>
       <c r="L4" t="n">
         <v>36949.71073790394</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867048</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653856</v>
+        <v>133760.8979867045</v>
       </c>
       <c r="D6" t="n">
-        <v>133805.0337653857</v>
+        <v>133760.8979867046</v>
       </c>
       <c r="E6" t="n">
-        <v>-149012.2813447629</v>
+        <v>-162644.5682311409</v>
       </c>
       <c r="F6" t="n">
-        <v>173297.3241814146</v>
+        <v>159665.0372950366</v>
       </c>
       <c r="G6" t="n">
-        <v>173297.3241814146</v>
+        <v>159665.0372950367</v>
       </c>
       <c r="H6" t="n">
-        <v>173297.3241814146</v>
+        <v>159665.0372950367</v>
       </c>
       <c r="I6" t="n">
-        <v>163734.3571988505</v>
+        <v>150916.3041367317</v>
       </c>
       <c r="J6" t="n">
-        <v>179020.1387479742</v>
+        <v>166202.0856858553</v>
       </c>
       <c r="K6" t="n">
-        <v>179020.1387479742</v>
+        <v>166202.0856858553</v>
       </c>
       <c r="L6" t="n">
-        <v>179020.1387479742</v>
+        <v>166202.0856858553</v>
       </c>
       <c r="M6" t="n">
-        <v>173297.3241814147</v>
+        <v>159665.0372950366</v>
       </c>
       <c r="N6" t="n">
-        <v>173297.3241814147</v>
+        <v>159665.0372950366</v>
       </c>
       <c r="O6" t="n">
-        <v>173297.3241814147</v>
+        <v>159665.0372950366</v>
       </c>
       <c r="P6" t="n">
-        <v>173297.3241814147</v>
+        <v>159665.0372950367</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="F4" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="G4" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="H4" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="I4" t="n">
         <v>114.9648320299915</v>
@@ -26822,16 +26822,16 @@
         <v>114.9648320299915</v>
       </c>
       <c r="M4" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N4" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O4" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P4" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499578</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499558</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>199.6164499370141</v>
       </c>
       <c r="N12" t="n">
-        <v>188.8241280983291</v>
+        <v>188.8241280983292</v>
       </c>
       <c r="O12" t="n">
-        <v>194.3770452246396</v>
+        <v>194.3770452246395</v>
       </c>
       <c r="P12" t="n">
         <v>156.0047153757877</v>
@@ -34219,7 +34219,7 @@
         <v>177.3855812090214</v>
       </c>
       <c r="M42" t="n">
-        <v>199.6164499370142</v>
+        <v>199.6164499370141</v>
       </c>
       <c r="N42" t="n">
         <v>188.8241280983291</v>
@@ -34456,7 +34456,7 @@
         <v>177.3855812090214</v>
       </c>
       <c r="M45" t="n">
-        <v>199.6164499370142</v>
+        <v>199.6164499370141</v>
       </c>
       <c r="N45" t="n">
         <v>188.8241280983291</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="L11" t="n">
-        <v>5.190650840155826</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="M11" t="n">
-        <v>57.48241601499575</v>
+        <v>42.43778291613672</v>
       </c>
       <c r="N11" t="n">
-        <v>57.48241601499575</v>
+        <v>43.03641849499758</v>
       </c>
       <c r="O11" t="n">
         <v>27.1681087596655</v>
       </c>
       <c r="P11" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.80113455598269</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M12" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="N12" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499588</v>
       </c>
       <c r="O12" t="n">
-        <v>51.78080078019513</v>
+        <v>51.78080078019508</v>
       </c>
       <c r="P12" t="n">
         <v>22.03030796145748</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>57.30541422011579</v>
       </c>
       <c r="L13" t="n">
-        <v>55.15989415580399</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>57.48241601499575</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="O13" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="P13" t="n">
-        <v>57.48241601499575</v>
+        <v>55.336895950684</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="L14" t="n">
-        <v>42.43778291613667</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="M14" t="n">
-        <v>57.48241601499575</v>
+        <v>37.7649299426354</v>
       </c>
       <c r="N14" t="n">
         <v>43.03641849499758</v>
@@ -35667,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4.672852973501328</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>57.48241601499578</v>
       </c>
       <c r="N15" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="O15" t="n">
         <v>51.78080078019508</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>55.15989415580405</v>
       </c>
       <c r="M16" t="n">
-        <v>55.15989415580399</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="O16" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="P16" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.96461814834123</v>
       </c>
       <c r="L17" t="n">
-        <v>57.48241601499575</v>
+        <v>5.190650840155826</v>
       </c>
       <c r="M17" t="n">
         <v>37.7649299426354</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.672852973501271</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M18" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N18" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O18" t="n">
         <v>51.78080078019508</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>57.30541422011579</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>55.33689595068395</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N19" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O19" t="n">
-        <v>57.48241601499575</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.15989415580401</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="L20" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="M20" t="n">
         <v>37.7649299426354</v>
       </c>
       <c r="N20" t="n">
-        <v>57.48241601499577</v>
+        <v>47.70927146849884</v>
       </c>
       <c r="O20" t="n">
         <v>27.1681087596655</v>
@@ -36141,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>47.70927146849887</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M21" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N21" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O21" t="n">
         <v>51.78080078019508</v>
@@ -36284,13 +36284,13 @@
         <v>57.30541422011579</v>
       </c>
       <c r="L22" t="n">
-        <v>55.33689595068402</v>
+        <v>55.33689595068399</v>
       </c>
       <c r="M22" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N22" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40.19609876915129</v>
+        <v>67.28336981661039</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="L23" t="n">
-        <v>5.190650840155826</v>
-      </c>
       <c r="M23" t="n">
-        <v>37.7649299426354</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="N23" t="n">
+        <v>43.03641849499758</v>
+      </c>
+      <c r="O23" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="O23" t="n">
-        <v>27.1681087596655</v>
-      </c>
       <c r="P23" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>114.9648320299915</v>
+        <v>38.83120142914717</v>
       </c>
       <c r="M24" t="n">
         <v>64.86657261156739</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9648320299915</v>
+        <v>81.13758455566793</v>
       </c>
       <c r="O24" t="n">
         <v>51.78080078019508</v>
       </c>
       <c r="P24" t="n">
-        <v>108.637246949837</v>
+        <v>103.6332929950135</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>30.20362732246057</v>
+        <v>110.319788311608</v>
       </c>
       <c r="M25" t="n">
         <v>114.9648320299915</v>
@@ -36533,7 +36533,7 @@
         <v>114.9648320299915</v>
       </c>
       <c r="P25" t="n">
-        <v>80.11616098914746</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.190650840155826</v>
       </c>
       <c r="M26" t="n">
         <v>37.7649299426354</v>
@@ -36615,7 +36615,7 @@
         <v>114.9648320299915</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.1245123041452</v>
+        <v>2.35033111430949</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.43880014578596</v>
       </c>
       <c r="K27" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>38.83120142914717</v>
@@ -36691,10 +36691,10 @@
         <v>51.78080078019508</v>
       </c>
       <c r="P27" t="n">
-        <v>27.19449284922754</v>
+        <v>27.19449284922749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>57.30541422011579</v>
       </c>
       <c r="L28" t="n">
         <v>114.9648320299915</v>
@@ -36764,7 +36764,7 @@
         <v>114.9648320299915</v>
       </c>
       <c r="N28" t="n">
-        <v>110.319788311608</v>
+        <v>53.01437409149219</v>
       </c>
       <c r="O28" t="n">
         <v>114.9648320299915</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.350331114309506</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>114.9648320299915</v>
@@ -36843,16 +36843,16 @@
         <v>37.7649299426354</v>
       </c>
       <c r="N29" t="n">
-        <v>43.03641849499758</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="O29" t="n">
         <v>27.1681087596655</v>
       </c>
       <c r="P29" t="n">
+        <v>45.3867496093071</v>
+      </c>
+      <c r="Q29" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="L30" t="n">
         <v>38.83120142914717</v>
@@ -36928,10 +36928,10 @@
         <v>51.78080078019508</v>
       </c>
       <c r="P30" t="n">
-        <v>114.9648320299915</v>
+        <v>22.03030796145748</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.6332929950135</v>
+        <v>81.60298503355597</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>57.30541422011579</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>114.9648320299915</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="N31" t="n">
         <v>114.9648320299915</v>
       </c>
       <c r="O31" t="n">
-        <v>114.9648320299915</v>
+        <v>110.319788311608</v>
       </c>
       <c r="P31" t="n">
-        <v>53.01437409149224</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>5.190650840155826</v>
+      </c>
+      <c r="M32" t="n">
         <v>114.9648320299915</v>
       </c>
-      <c r="M32" t="n">
-        <v>37.7649299426354</v>
-      </c>
       <c r="N32" t="n">
-        <v>72.55485836897263</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="O32" t="n">
-        <v>114.9648320299915</v>
+        <v>105.1291374714522</v>
       </c>
       <c r="P32" t="n">
-        <v>114.9648320299915</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>114.9648320299915</v>
+        <v>38.83120142914717</v>
       </c>
       <c r="M33" t="n">
         <v>64.86657261156739</v>
@@ -37162,10 +37162,10 @@
         <v>81.13758455566793</v>
       </c>
       <c r="O33" t="n">
-        <v>95.77618709711231</v>
+        <v>78.97529362942258</v>
       </c>
       <c r="P33" t="n">
-        <v>22.03030796145748</v>
+        <v>114.9648320299915</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>30.20362732246057</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>30.20362732246052</v>
+      </c>
+      <c r="M34" t="n">
         <v>114.9648320299915</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>114.9648320299915</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.190650840155826</v>
+        <v>12.12347566080645</v>
       </c>
       <c r="M35" t="n">
-        <v>37.7649299426354</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N35" t="n">
         <v>43.03641849499758</v>
       </c>
       <c r="O35" t="n">
-        <v>27.1681087596655</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P35" t="n">
-        <v>56.96461814834125</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M36" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N36" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O36" t="n">
         <v>51.78080078019508</v>
       </c>
       <c r="P36" t="n">
-        <v>22.03030796145748</v>
+        <v>22.03030796145753</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37472,16 +37472,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>55.33689595068399</v>
       </c>
       <c r="N37" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O37" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P37" t="n">
-        <v>55.336895950684</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.190650840155826</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="M38" t="n">
-        <v>37.7649299426354</v>
+        <v>55.15989415580402</v>
       </c>
       <c r="N38" t="n">
-        <v>43.03641849499758</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O38" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P38" t="n">
-        <v>26.650310893011</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M39" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N39" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O39" t="n">
         <v>51.78080078019508</v>
       </c>
       <c r="P39" t="n">
-        <v>22.03030796145748</v>
+        <v>22.03030796145753</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>57.30541422011579</v>
       </c>
       <c r="L40" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>55.33689595068399</v>
       </c>
       <c r="N40" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>55.15989415580404</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="P40" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.84096173316682</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="M41" t="n">
-        <v>37.7649299426354</v>
+        <v>42.4377829161367</v>
       </c>
       <c r="N41" t="n">
         <v>43.03641849499758</v>
       </c>
       <c r="O41" t="n">
-        <v>57.48241601499577</v>
+        <v>27.1681087596655</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M42" t="n">
-        <v>57.48241601499586</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N42" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O42" t="n">
         <v>51.78080078019508</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>57.30541422011579</v>
       </c>
       <c r="L43" t="n">
-        <v>57.48241601499577</v>
+        <v>55.33689595068399</v>
       </c>
       <c r="M43" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="N43" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499576</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.15989415580404</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.96461814834126</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.190650840155826</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="M44" t="n">
-        <v>37.7649299426354</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="N44" t="n">
-        <v>43.03641849499758</v>
+        <v>55.15989415580404</v>
       </c>
       <c r="O44" t="n">
-        <v>27.1681087596655</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>38.83120142914717</v>
       </c>
       <c r="M45" t="n">
-        <v>57.48241601499586</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="N45" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="O45" t="n">
         <v>51.78080078019508</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="M46" t="n">
-        <v>57.48241601499577</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>57.48241601499577</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="O46" t="n">
-        <v>55.15989415580404</v>
+        <v>57.48241601499578</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>55.15989415580401</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
